--- a/Controllers/Directory/Flotas.xlsx
+++ b/Controllers/Directory/Flotas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ti\source\rticketsapp-BackEnd\Controllers\Directory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77893D32-A8BC-4A68-AECE-990DC19AC147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BEA4E9-94E8-4451-AE3F-D83646169405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{63971B5E-A188-49C6-9920-D1A34DFA6B14}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{63971B5E-A188-49C6-9920-D1A34DFA6B14}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,15 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="357">
   <si>
-    <t>Móbil</t>
-  </si>
-  <si>
-    <t>Compañía</t>
-  </si>
-  <si>
-    <t>Departamenteo</t>
-  </si>
-  <si>
     <t>Puesto</t>
   </si>
   <si>
@@ -1096,6 +1087,15 @@
   </si>
   <si>
     <t>Wanel Antonio Ramirez</t>
+  </si>
+  <si>
+    <t>Mobil</t>
+  </si>
+  <si>
+    <t>Compania</t>
+  </si>
+  <si>
+    <t>Departamento</t>
   </si>
 </sst>
 </file>
@@ -1450,7 +1450,7 @@
   <dimension ref="A1:E226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1464,19 +1464,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1484,16 +1484,16 @@
         <v>8296160110</v>
       </c>
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1501,16 +1501,16 @@
         <v>8299048051</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1518,16 +1518,16 @@
         <v>8296160132</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1535,16 +1535,16 @@
         <v>8099106740</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1552,16 +1552,16 @@
         <v>8296160102</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1569,16 +1569,16 @@
         <v>8097075915</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1586,16 +1586,16 @@
         <v>8099106271</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1603,16 +1603,16 @@
         <v>8099106745</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
         <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1620,16 +1620,16 @@
         <v>8099106753</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1637,16 +1637,16 @@
         <v>8295214620</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1654,16 +1654,16 @@
         <v>8294215072</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1671,16 +1671,16 @@
         <v>8297279911</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1688,16 +1688,16 @@
         <v>8296160131</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1705,16 +1705,16 @@
         <v>8296160120</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1722,16 +1722,16 @@
         <v>8296160121</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1739,16 +1739,16 @@
         <v>8092843254</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1756,16 +1756,16 @@
         <v>8296160130</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1773,16 +1773,16 @@
         <v>8296193874</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1790,16 +1790,16 @@
         <v>8099107652</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E20" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1807,16 +1807,16 @@
         <v>8294716985</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E21" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1824,16 +1824,16 @@
         <v>8494102222</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1841,16 +1841,16 @@
         <v>8294716696</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1858,16 +1858,16 @@
         <v>8297627744</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E24" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1875,16 +1875,16 @@
         <v>8097541273</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" t="s">
         <v>53</v>
-      </c>
-      <c r="D25" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1892,16 +1892,16 @@
         <v>8099100129</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D26" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E26" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1909,16 +1909,16 @@
         <v>8294714618</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D27" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E27" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1926,16 +1926,16 @@
         <v>8296160109</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E28" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1943,16 +1943,16 @@
         <v>8297279910</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D29" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E29" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1960,16 +1960,16 @@
         <v>8296160112</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D30" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1977,16 +1977,16 @@
         <v>8297622232</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D31" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E31" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1994,16 +1994,16 @@
         <v>8297621335</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D32" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -2011,16 +2011,16 @@
         <v>8294712407</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D33" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E33" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2028,16 +2028,16 @@
         <v>8294711321</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D34" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E34" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2045,16 +2045,16 @@
         <v>8097548522</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D35" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E35" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -2062,16 +2062,16 @@
         <v>8099106748</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C36" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D36" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E36" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -2079,16 +2079,16 @@
         <v>8294714021</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D37" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E37" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -2096,16 +2096,16 @@
         <v>8294714750</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E38" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -2113,16 +2113,16 @@
         <v>8294716975</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D39" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E39" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -2130,16 +2130,16 @@
         <v>8296498567</v>
       </c>
       <c r="B40" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C40" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D40" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E40" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -2147,16 +2147,16 @@
         <v>8297622234</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D41" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E41" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -2164,16 +2164,16 @@
         <v>8097540186</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C42" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D42" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E42" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -2181,16 +2181,16 @@
         <v>8296160100</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E43" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -2198,16 +2198,16 @@
         <v>8297622233</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D44" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E44" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -2215,16 +2215,16 @@
         <v>8296160111</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C45" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D45" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E45" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -2232,16 +2232,16 @@
         <v>8299048052</v>
       </c>
       <c r="B46" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C46" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D46" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E46" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -2249,16 +2249,16 @@
         <v>8099104277</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E47" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -2266,16 +2266,16 @@
         <v>8099106730</v>
       </c>
       <c r="B48" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C48" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D48" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E48" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -2283,16 +2283,16 @@
         <v>8099106715</v>
       </c>
       <c r="B49" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C49" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D49" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E49" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2300,16 +2300,16 @@
         <v>8092849255</v>
       </c>
       <c r="B50" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D50" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E50" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2317,16 +2317,16 @@
         <v>8296160153</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C51" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D51" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E51" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2334,16 +2334,16 @@
         <v>8099107651</v>
       </c>
       <c r="B52" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C52" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D52" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E52" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -2351,16 +2351,16 @@
         <v>8099106747</v>
       </c>
       <c r="B53" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D53" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E53" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2368,16 +2368,16 @@
         <v>8296160138</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D54" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E54" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2385,16 +2385,16 @@
         <v>8296160125</v>
       </c>
       <c r="B55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C55" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D55" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E55" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -2402,16 +2402,16 @@
         <v>8097547274</v>
       </c>
       <c r="B56" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C56" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D56" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E56" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2419,16 +2419,16 @@
         <v>8296160136</v>
       </c>
       <c r="B57" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D57" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E57" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -2436,16 +2436,16 @@
         <v>8099106729</v>
       </c>
       <c r="B58" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D58" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E58" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -2453,16 +2453,16 @@
         <v>8296160156</v>
       </c>
       <c r="B59" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D59" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E59" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2470,16 +2470,16 @@
         <v>8099106713</v>
       </c>
       <c r="B60" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C60" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D60" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E60" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2487,16 +2487,16 @@
         <v>8297707049</v>
       </c>
       <c r="B61" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C61" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D61" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E61" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2504,16 +2504,16 @@
         <v>8099106725</v>
       </c>
       <c r="B62" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D62" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E62" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2521,16 +2521,16 @@
         <v>8099106731</v>
       </c>
       <c r="B63" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C63" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D63" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E63" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2538,16 +2538,16 @@
         <v>8099106754</v>
       </c>
       <c r="B64" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D64" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E64" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2555,16 +2555,16 @@
         <v>8099106721</v>
       </c>
       <c r="B65" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D65" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E65" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2572,16 +2572,16 @@
         <v>8099106746</v>
       </c>
       <c r="B66" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C66" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D66" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E66" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2589,16 +2589,16 @@
         <v>8099106720</v>
       </c>
       <c r="B67" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D67" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E67" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2606,16 +2606,16 @@
         <v>8099108393</v>
       </c>
       <c r="B68" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C68" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D68" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2623,16 +2623,16 @@
         <v>8296498562</v>
       </c>
       <c r="B69" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D69" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2640,16 +2640,16 @@
         <v>8099106722</v>
       </c>
       <c r="B70" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C70" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D70" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E70" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2657,16 +2657,16 @@
         <v>8294714749</v>
       </c>
       <c r="B71" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D71" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2674,16 +2674,16 @@
         <v>8099106717</v>
       </c>
       <c r="B72" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C72" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D72" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E72" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2691,16 +2691,16 @@
         <v>8099106719</v>
       </c>
       <c r="B73" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C73" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D73" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E73" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2708,16 +2708,16 @@
         <v>8299048050</v>
       </c>
       <c r="B74" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C74" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D74" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E74" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -2725,13 +2725,13 @@
         <v>8296160143</v>
       </c>
       <c r="B75" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C75" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D75" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2739,16 +2739,16 @@
         <v>8099106724</v>
       </c>
       <c r="B76" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C76" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D76" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E76" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -2756,16 +2756,16 @@
         <v>8296160145</v>
       </c>
       <c r="B77" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C77" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D77" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E77" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -2773,16 +2773,16 @@
         <v>8099106736</v>
       </c>
       <c r="B78" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C78" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D78" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E78" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -2790,16 +2790,16 @@
         <v>8296498561</v>
       </c>
       <c r="B79" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C79" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D79" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E79" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -2807,16 +2807,16 @@
         <v>8099106728</v>
       </c>
       <c r="B80" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C80" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D80" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E80" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -2824,16 +2824,16 @@
         <v>8296160140</v>
       </c>
       <c r="B81" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C81" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D81" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E81" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -2841,16 +2841,16 @@
         <v>8099106739</v>
       </c>
       <c r="B82" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C82" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D82" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E82" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -2858,16 +2858,16 @@
         <v>8097549837</v>
       </c>
       <c r="B83" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C83" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D83" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E83" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -2875,16 +2875,16 @@
         <v>8296160144</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C84" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D84" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E84" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2892,16 +2892,16 @@
         <v>8296160146</v>
       </c>
       <c r="B85" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C85" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D85" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E85" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2909,16 +2909,16 @@
         <v>8296160152</v>
       </c>
       <c r="B86" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C86" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D86" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E86" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2926,16 +2926,16 @@
         <v>8097549836</v>
       </c>
       <c r="B87" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C87" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D87" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E87" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2943,16 +2943,16 @@
         <v>8097546466</v>
       </c>
       <c r="B88" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C88" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D88" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E88" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2960,16 +2960,16 @@
         <v>8099106735</v>
       </c>
       <c r="B89" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C89" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D89" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E89" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -2977,16 +2977,16 @@
         <v>8097549325</v>
       </c>
       <c r="B90" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C90" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D90" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E90" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -2994,16 +2994,16 @@
         <v>8099106723</v>
       </c>
       <c r="B91" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C91" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D91" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E91" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -3011,16 +3011,16 @@
         <v>8092844042</v>
       </c>
       <c r="B92" t="s">
+        <v>165</v>
+      </c>
+      <c r="C92" t="s">
+        <v>166</v>
+      </c>
+      <c r="D92" t="s">
+        <v>167</v>
+      </c>
+      <c r="E92" t="s">
         <v>168</v>
-      </c>
-      <c r="C92" t="s">
-        <v>169</v>
-      </c>
-      <c r="D92" t="s">
-        <v>170</v>
-      </c>
-      <c r="E92" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -3028,16 +3028,16 @@
         <v>8294714526</v>
       </c>
       <c r="B93" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C93" t="s">
+        <v>166</v>
+      </c>
+      <c r="D93" t="s">
+        <v>166</v>
+      </c>
+      <c r="E93" t="s">
         <v>169</v>
-      </c>
-      <c r="D93" t="s">
-        <v>169</v>
-      </c>
-      <c r="E93" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -3045,16 +3045,16 @@
         <v>8296160135</v>
       </c>
       <c r="B94" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C94" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D94" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E94" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -3062,16 +3062,16 @@
         <v>8296160101</v>
       </c>
       <c r="B95" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C95" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D95" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E95" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -3079,16 +3079,16 @@
         <v>8296160104</v>
       </c>
       <c r="B96" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C96" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D96" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E96" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -3096,16 +3096,16 @@
         <v>8296160141</v>
       </c>
       <c r="B97" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C97" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D97" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E97" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -3113,16 +3113,16 @@
         <v>8294715032</v>
       </c>
       <c r="B98" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C98" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D98" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E98" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -3130,16 +3130,16 @@
         <v>8294713120</v>
       </c>
       <c r="B99" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C99" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D99" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E99" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -3147,16 +3147,16 @@
         <v>8099106270</v>
       </c>
       <c r="B100" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C100" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D100" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E100" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -3164,16 +3164,16 @@
         <v>8296160128</v>
       </c>
       <c r="B101" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C101" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D101" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E101" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -3181,16 +3181,16 @@
         <v>8296160129</v>
       </c>
       <c r="B102" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C102" t="s">
+        <v>181</v>
+      </c>
+      <c r="D102" t="s">
+        <v>21</v>
+      </c>
+      <c r="E102" t="s">
         <v>184</v>
-      </c>
-      <c r="D102" t="s">
-        <v>24</v>
-      </c>
-      <c r="E102" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -3198,16 +3198,16 @@
         <v>8294714619</v>
       </c>
       <c r="B103" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C103" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D103" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E103" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -3215,16 +3215,16 @@
         <v>8296160126</v>
       </c>
       <c r="B104" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C104" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D104" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E104" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -3232,16 +3232,16 @@
         <v>8099106710</v>
       </c>
       <c r="B105" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C105" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D105" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E105" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -3249,16 +3249,16 @@
         <v>8099106733</v>
       </c>
       <c r="B106" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C106" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D106" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E106" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -3266,16 +3266,16 @@
         <v>8099106711</v>
       </c>
       <c r="B107" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C107" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D107" t="s">
+        <v>187</v>
+      </c>
+      <c r="E107" t="s">
         <v>190</v>
-      </c>
-      <c r="E107" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -3283,16 +3283,16 @@
         <v>8296160139</v>
       </c>
       <c r="B108" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C108" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D108" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E108" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -3300,16 +3300,16 @@
         <v>8099106741</v>
       </c>
       <c r="B109" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C109" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D109" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E109" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -3317,16 +3317,16 @@
         <v>8099106744</v>
       </c>
       <c r="B110" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C110" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D110" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E110" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -3334,16 +3334,16 @@
         <v>8099104282</v>
       </c>
       <c r="B111" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C111" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D111" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E111" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -3351,16 +3351,16 @@
         <v>8099955283</v>
       </c>
       <c r="B112" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C112" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D112" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E112" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -3368,16 +3368,16 @@
         <v>8099106738</v>
       </c>
       <c r="B113" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C113" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D113" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E113" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -3385,16 +3385,16 @@
         <v>8296160133</v>
       </c>
       <c r="B114" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C114" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D114" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E114" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -3402,16 +3402,16 @@
         <v>8297271989</v>
       </c>
       <c r="B115" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C115" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D115" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E115" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -3419,16 +3419,16 @@
         <v>8296160127</v>
       </c>
       <c r="B116" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C116" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D116" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E116" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -3436,16 +3436,16 @@
         <v>8297626449</v>
       </c>
       <c r="B117" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C117" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D117" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E117" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -3453,16 +3453,16 @@
         <v>8294715033</v>
       </c>
       <c r="B118" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C118" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D118" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E118" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -3470,16 +3470,16 @@
         <v>8296160154</v>
       </c>
       <c r="B119" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C119" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D119" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E119" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -3487,16 +3487,16 @@
         <v>8099106718</v>
       </c>
       <c r="B120" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C120" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D120" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E120" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -3504,16 +3504,16 @@
         <v>8295202500</v>
       </c>
       <c r="B121" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C121" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D121" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E121" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -3521,16 +3521,16 @@
         <v>8296498565</v>
       </c>
       <c r="B122" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C122" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D122" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E122" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -3538,16 +3538,16 @@
         <v>8296160157</v>
       </c>
       <c r="B123" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C123" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D123" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E123" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -3555,16 +3555,16 @@
         <v>8099106716</v>
       </c>
       <c r="B124" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C124" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D124" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E124" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -3572,16 +3572,16 @@
         <v>8097541320</v>
       </c>
       <c r="B125" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C125" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D125" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E125" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -3589,16 +3589,16 @@
         <v>8294714748</v>
       </c>
       <c r="B126" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C126" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D126" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E126" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -3606,16 +3606,16 @@
         <v>8099106714</v>
       </c>
       <c r="B127" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C127" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D127" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E127" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -3623,16 +3623,16 @@
         <v>8296160148</v>
       </c>
       <c r="B128" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C128" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D128" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E128" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -3640,16 +3640,16 @@
         <v>8097542963</v>
       </c>
       <c r="B129" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C129" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D129" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E129" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -3657,16 +3657,16 @@
         <v>8296160150</v>
       </c>
       <c r="B130" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C130" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D130" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E130" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -3674,16 +3674,16 @@
         <v>8296160142</v>
       </c>
       <c r="B131" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C131" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D131" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E131" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -3691,16 +3691,16 @@
         <v>8294714015</v>
       </c>
       <c r="B132" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C132" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D132" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E132" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -3708,16 +3708,16 @@
         <v>8294714013</v>
       </c>
       <c r="B133" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C133" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D133" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E133" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -3725,16 +3725,16 @@
         <v>8294714014</v>
       </c>
       <c r="B134" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C134" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D134" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E134" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -3742,16 +3742,16 @@
         <v>8294714019</v>
       </c>
       <c r="B135" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C135" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D135" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E135" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -3759,16 +3759,16 @@
         <v>8294714017</v>
       </c>
       <c r="B136" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C136" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D136" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E136" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -3776,16 +3776,16 @@
         <v>8294714018</v>
       </c>
       <c r="B137" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C137" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D137" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E137" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -3798,16 +3798,16 @@
         <v>8294714020</v>
       </c>
       <c r="B139" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C139" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D139" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E139" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -3815,16 +3815,16 @@
         <v>8296160113</v>
       </c>
       <c r="B140" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C140" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D140" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E140" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -3832,16 +3832,16 @@
         <v>8294715028</v>
       </c>
       <c r="B141" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C141" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D141" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E141" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -3849,16 +3849,16 @@
         <v>8296160114</v>
       </c>
       <c r="B142" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C142" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D142" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E142" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -3866,16 +3866,16 @@
         <v>8294714745</v>
       </c>
       <c r="B143" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C143" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D143" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E143" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -3883,16 +3883,16 @@
         <v>8296160103</v>
       </c>
       <c r="B144" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C144" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D144" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E144" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -3900,16 +3900,16 @@
         <v>8099106742</v>
       </c>
       <c r="B145" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C145" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D145" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E145" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -3917,16 +3917,16 @@
         <v>8296160117</v>
       </c>
       <c r="B146" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C146" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D146" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E146" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -3934,16 +3934,16 @@
         <v>8296160151</v>
       </c>
       <c r="B147" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C147" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D147" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E147" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -3951,16 +3951,16 @@
         <v>8296160106</v>
       </c>
       <c r="B148" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C148" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D148" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E148" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -3968,16 +3968,16 @@
         <v>8294714746</v>
       </c>
       <c r="B149" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C149" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D149" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E149" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -3985,16 +3985,16 @@
         <v>8296160107</v>
       </c>
       <c r="B150" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C150" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D150" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E150" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -4002,16 +4002,16 @@
         <v>8296160134</v>
       </c>
       <c r="B151" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C151" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D151" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E151" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -4019,16 +4019,16 @@
         <v>8294714747</v>
       </c>
       <c r="B152" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C152" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D152" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E152" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -4036,16 +4036,16 @@
         <v>8294716970</v>
       </c>
       <c r="B153" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C153" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D153" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E153" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -4053,16 +4053,16 @@
         <v>8296193873</v>
       </c>
       <c r="B154" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C154" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D154" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E154" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -4070,16 +4070,16 @@
         <v>8296160119</v>
       </c>
       <c r="B155" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C155" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D155" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E155" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -4087,16 +4087,16 @@
         <v>8296160108</v>
       </c>
       <c r="B156" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C156" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D156" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E156" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -4104,16 +4104,16 @@
         <v>8296160122</v>
       </c>
       <c r="B157" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C157" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D157" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E157" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -4121,16 +4121,16 @@
         <v>8099104283</v>
       </c>
       <c r="B158" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C158" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D158" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E158" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -4138,16 +4138,16 @@
         <v>8099811370</v>
       </c>
       <c r="B159" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C159" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D159" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E159" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -4155,16 +4155,16 @@
         <v>8297619269</v>
       </c>
       <c r="B160" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C160" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D160" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E160" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -4172,16 +4172,16 @@
         <v>8296160124</v>
       </c>
       <c r="B161" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C161" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D161" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E161" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -4189,16 +4189,16 @@
         <v>8296160123</v>
       </c>
       <c r="B162" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C162" t="s">
+        <v>261</v>
+      </c>
+      <c r="D162" t="s">
+        <v>4</v>
+      </c>
+      <c r="E162" t="s">
         <v>264</v>
-      </c>
-      <c r="D162" t="s">
-        <v>7</v>
-      </c>
-      <c r="E162" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -4206,16 +4206,16 @@
         <v>8099106273</v>
       </c>
       <c r="B163" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C163" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D163" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E163" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -4223,16 +4223,16 @@
         <v>8296160105</v>
       </c>
       <c r="B164" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C164" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D164" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E164" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -4240,16 +4240,16 @@
         <v>8099100163</v>
       </c>
       <c r="B165" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C165" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D165" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E165" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -4257,16 +4257,16 @@
         <v>8296160155</v>
       </c>
       <c r="B166" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C166" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D166" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E166" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -4274,16 +4274,16 @@
         <v>8099106732</v>
       </c>
       <c r="B167" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C167" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D167" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E167" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -4291,16 +4291,16 @@
         <v>8296160147</v>
       </c>
       <c r="B168" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C168" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D168" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E168" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -4308,16 +4308,16 @@
         <v>8099106274</v>
       </c>
       <c r="B169" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C169" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D169" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E169" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -4325,16 +4325,16 @@
         <v>8092846222</v>
       </c>
       <c r="B170" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C170" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D170" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E170" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -4342,16 +4342,16 @@
         <v>8097543668</v>
       </c>
       <c r="B171" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C171" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D171" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E171" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -4359,16 +4359,16 @@
         <v>8294713231</v>
       </c>
       <c r="B172" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C172" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D172" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E172" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -4376,16 +4376,16 @@
         <v>8294710309</v>
       </c>
       <c r="B173" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C173" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D173" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E173" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -4393,16 +4393,16 @@
         <v>8294710384</v>
       </c>
       <c r="B174" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C174" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D174" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E174" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -4410,16 +4410,16 @@
         <v>8294710480</v>
       </c>
       <c r="B175" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C175" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D175" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E175" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -4427,16 +4427,16 @@
         <v>8297622017</v>
       </c>
       <c r="B176" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C176" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D176" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E176" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -4444,16 +4444,16 @@
         <v>8297625088</v>
       </c>
       <c r="B177" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C177" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D177" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E177" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -4461,16 +4461,16 @@
         <v>8297625477</v>
       </c>
       <c r="B178" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C178" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D178" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E178" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -4478,16 +4478,16 @@
         <v>8297625598</v>
       </c>
       <c r="B179" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C179" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D179" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E179" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
@@ -4495,16 +4495,16 @@
         <v>8097543238</v>
       </c>
       <c r="B180" t="s">
+        <v>10</v>
+      </c>
+      <c r="C180" t="s">
+        <v>276</v>
+      </c>
+      <c r="D180" t="s">
         <v>13</v>
       </c>
-      <c r="C180" t="s">
-        <v>279</v>
-      </c>
-      <c r="D180" t="s">
-        <v>16</v>
-      </c>
       <c r="E180" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
@@ -4512,16 +4512,16 @@
         <v>8294712802</v>
       </c>
       <c r="B181" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C181" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D181" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E181" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
@@ -4529,16 +4529,16 @@
         <v>8097543986</v>
       </c>
       <c r="B182" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C182" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D182" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E182" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
@@ -4546,16 +4546,16 @@
         <v>8297625393</v>
       </c>
       <c r="B183" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C183" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D183" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E183" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
@@ -4563,16 +4563,16 @@
         <v>8097548489</v>
       </c>
       <c r="B184" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C184" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D184" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E184" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -4580,16 +4580,16 @@
         <v>8097548505</v>
       </c>
       <c r="B185" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C185" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D185" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E185" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
@@ -4597,16 +4597,16 @@
         <v>8097548509</v>
       </c>
       <c r="B186" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C186" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D186" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E186" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -4614,16 +4614,16 @@
         <v>8296160137</v>
       </c>
       <c r="B187" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C187" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D187" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E187" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -4631,16 +4631,16 @@
         <v>8097548364</v>
       </c>
       <c r="B188" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C188" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D188" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E188" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -4648,16 +4648,16 @@
         <v>8097543539</v>
       </c>
       <c r="B189" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C189" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D189" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E189" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -4665,16 +4665,16 @@
         <v>8097549674</v>
       </c>
       <c r="B190" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C190" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D190" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E190" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -4682,16 +4682,16 @@
         <v>8097549677</v>
       </c>
       <c r="B191" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C191" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D191" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E191" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -4699,16 +4699,16 @@
         <v>8092844867</v>
       </c>
       <c r="B192" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C192" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D192" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E192" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
@@ -4716,16 +4716,16 @@
         <v>8092846706</v>
       </c>
       <c r="B193" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C193" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D193" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E193" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
@@ -4733,16 +4733,16 @@
         <v>8097966409</v>
       </c>
       <c r="B194" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C194" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D194" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E194" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
@@ -4750,16 +4750,16 @@
         <v>8097966437</v>
       </c>
       <c r="B195" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C195" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D195" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E195" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
@@ -4767,16 +4767,16 @@
         <v>8294238215</v>
       </c>
       <c r="B196" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C196" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D196" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E196" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
@@ -4784,16 +4784,16 @@
         <v>8294713477</v>
       </c>
       <c r="B197" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C197" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D197" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E197" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
@@ -4801,16 +4801,16 @@
         <v>8297559805</v>
       </c>
       <c r="B198" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C198" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D198" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E198" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -4818,16 +4818,16 @@
         <v>8294712486</v>
       </c>
       <c r="B199" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C199" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D199" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E199" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
@@ -4835,16 +4835,16 @@
         <v>8297559806</v>
       </c>
       <c r="B200" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C200" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D200" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E200" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
@@ -4852,16 +4852,16 @@
         <v>8095016514</v>
       </c>
       <c r="B201" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C201" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D201" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E201" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
@@ -4869,16 +4869,16 @@
         <v>8095015285</v>
       </c>
       <c r="B202" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C202" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D202" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E202" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
@@ -4886,16 +4886,16 @@
         <v>8092849469</v>
       </c>
       <c r="B203" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C203" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D203" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E203" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
@@ -4903,16 +4903,16 @@
         <v>8297622240</v>
       </c>
       <c r="B204" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C204" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D204" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E204" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
@@ -4920,16 +4920,16 @@
         <v>8297624118</v>
       </c>
       <c r="B205" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C205" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D205" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E205" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
@@ -4937,16 +4937,16 @@
         <v>8094805529</v>
       </c>
       <c r="B206" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C206" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D206" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E206" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
@@ -4954,16 +4954,16 @@
         <v>8097966401</v>
       </c>
       <c r="B207" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C207" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D207" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E207" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
@@ -4971,16 +4971,16 @@
         <v>8099106734</v>
       </c>
       <c r="B208" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C208" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D208" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E208" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -4988,16 +4988,16 @@
         <v>8297621690</v>
       </c>
       <c r="B209" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C209" t="s">
+        <v>57</v>
+      </c>
+      <c r="D209" t="s">
         <v>60</v>
       </c>
-      <c r="D209" t="s">
-        <v>63</v>
-      </c>
       <c r="E209" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -5005,16 +5005,16 @@
         <v>8094803644</v>
       </c>
       <c r="B210" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C210" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D210" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E210" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -5022,16 +5022,16 @@
         <v>8292594384</v>
       </c>
       <c r="B211" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C211" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D211" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E211" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -5039,16 +5039,16 @@
         <v>8097547347</v>
       </c>
       <c r="B212" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C212" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D212" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E212" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -5056,16 +5056,16 @@
         <v>8297628111</v>
       </c>
       <c r="B213" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C213" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D213" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E213" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -5073,16 +5073,16 @@
         <v>8294232897</v>
       </c>
       <c r="B214" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C214" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D214" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E214" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -5090,16 +5090,16 @@
         <v>8294232898</v>
       </c>
       <c r="B215" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C215" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D215" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E215" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
@@ -5107,16 +5107,16 @@
         <v>8294706194</v>
       </c>
       <c r="B216" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C216" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D216" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E216" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -5124,16 +5124,16 @@
         <v>8097223119</v>
       </c>
       <c r="B217" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C217" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D217" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E217" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
@@ -5141,16 +5141,16 @@
         <v>8097223869</v>
       </c>
       <c r="B218" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C218" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D218" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E218" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -5158,16 +5158,16 @@
         <v>8097227681</v>
       </c>
       <c r="B219" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C219" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D219" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E219" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -5175,16 +5175,16 @@
         <v>8097228417</v>
       </c>
       <c r="B220" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C220" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D220" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E220" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
@@ -5192,16 +5192,16 @@
         <v>8294706196</v>
       </c>
       <c r="B221" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C221" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D221" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E221" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
@@ -5209,16 +5209,16 @@
         <v>8294706197</v>
       </c>
       <c r="B222" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C222" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D222" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E222" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -5226,16 +5226,16 @@
         <v>8092146936</v>
       </c>
       <c r="B223" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C223" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D223" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E223" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
@@ -5243,16 +5243,16 @@
         <v>8092149673</v>
       </c>
       <c r="B224" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C224" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D224" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E224" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
@@ -5260,16 +5260,16 @@
         <v>8092149391</v>
       </c>
       <c r="B225" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C225" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D225" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E225" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
@@ -5277,16 +5277,16 @@
         <v>8092140392</v>
       </c>
       <c r="B226" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C226" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D226" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E226" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
